--- a/communication_python/Verify_comm5100.xlsx
+++ b/communication_python/Verify_comm5100.xlsx
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.436507</v>
+        <v>0.373676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7244159999999999</v>
+        <v>2.735636</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
